--- a/testData/Contact.xlsx
+++ b/testData/Contact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWorkspace\CH\ShaddyM\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83422EAE-7D2D-4902-8CB9-E6AA71B25041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA26D02-4F93-430A-BFBE-88CD504EB5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{87D44E5E-FA58-43B3-A207-EC33F8C5A14B}"/>
   </bookViews>
@@ -65,7 +65,7 @@
     <t>"7586137331"</t>
   </si>
   <si>
-    <t>"RahulRanjan"</t>
+    <t>"Rahul Ranjan"</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/testData/Contact.xlsx
+++ b/testData/Contact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWorkspace\CH\ShaddyM\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA26D02-4F93-430A-BFBE-88CD504EB5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FF2CF1-AC90-4E07-97AB-17036AB036A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" xr2:uid="{87D44E5E-FA58-43B3-A207-EC33F8C5A14B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>"Rahul Ranjan"</t>
+  </si>
+  <si>
+    <t>Ananaya</t>
+  </si>
+  <si>
+    <t>zzin@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A20C3A-1312-45F7-930F-0D0FFFD0E31D}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -554,10 +560,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>12112</v>
+      </c>
+      <c r="D5">
+        <v>1212</v>
+      </c>
+      <c r="E5">
+        <v>12121</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{23FDDF73-4C64-4F94-B5E6-16A10EA822F9}"/>
     <hyperlink ref="B3:B4" r:id="rId2" display="zzinin@yahoo.com" xr:uid="{3594FAED-DB55-4778-ACE4-728100DA01CA}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{C157AF95-5A27-441C-AF35-A3F51B0555A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
